--- a/SeaEco.Server/wwwroot/reports/generated/SE-25-BU-1-Posisjoner.xlsx
+++ b/SeaEco.Server/wwwroot/reports/generated/SE-25-BU-1-Posisjoner.xlsx
@@ -177,7 +177,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38B09B11-2176-4875-A113-A3C8CD2C89F7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96F70FB4-3D59-45B8-BF47-C98D4381678A}">
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/SeaEco.Server/wwwroot/reports/generated/SE-25-BU-1-Posisjoner.xlsx
+++ b/SeaEco.Server/wwwroot/reports/generated/SE-25-BU-1-Posisjoner.xlsx
@@ -177,7 +177,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96F70FB4-3D59-45B8-BF47-C98D4381678A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50EB62BC-DD02-4FC1-A140-366EA0E4D188}">
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/SeaEco.Server/wwwroot/reports/generated/SE-25-BU-1-Posisjoner.xlsx
+++ b/SeaEco.Server/wwwroot/reports/generated/SE-25-BU-1-Posisjoner.xlsx
@@ -177,7 +177,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50EB62BC-DD02-4FC1-A140-366EA0E4D188}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C082A504-BDDD-4F67-9C31-16B80CEF7B4D}">
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
